--- a/data/trans_orig/P33B_R1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R1-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>124791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105929</v>
+        <v>106528</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144375</v>
+        <v>146422</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.250213206419468</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2123929688002294</v>
+        <v>0.2135950216413413</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2894804222775749</v>
+        <v>0.2935837781030296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>319</v>
@@ -762,19 +762,19 @@
         <v>204973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185871</v>
+        <v>184897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>228823</v>
+        <v>226091</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3290035714267351</v>
+        <v>0.329003571426735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2983428001412306</v>
+        <v>0.2967795072660336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3672850263904068</v>
+        <v>0.3629001688996792</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>451</v>
@@ -783,19 +783,19 @@
         <v>329764</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>298691</v>
+        <v>300602</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>359086</v>
+        <v>359478</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2939727535617161</v>
+        <v>0.2939727535617162</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2662723034989485</v>
+        <v>0.2679757153414472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3201124631940529</v>
+        <v>0.3204612356924832</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>373948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354364</v>
+        <v>352317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>392810</v>
+        <v>392211</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7497867935805321</v>
+        <v>0.749786793580532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7105195777224251</v>
+        <v>0.7064162218969703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7876070311997705</v>
+        <v>0.7864049783586584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>541</v>
@@ -833,19 +833,19 @@
         <v>418039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>394189</v>
+        <v>396921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>437141</v>
+        <v>438115</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6709964285732649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6327149736095933</v>
+        <v>0.6370998311003208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7016571998587696</v>
+        <v>0.7032204927339664</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>864</v>
@@ -854,19 +854,19 @@
         <v>791987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>762665</v>
+        <v>762273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>823060</v>
+        <v>821149</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.706027246438284</v>
+        <v>0.7060272464382839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.679887536805947</v>
+        <v>0.6795387643075167</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7337276965010516</v>
+        <v>0.7320242846585531</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>132836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112320</v>
+        <v>112323</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>153832</v>
+        <v>153295</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1383515984636532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1169828696247696</v>
+        <v>0.1169862360826147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.160218349589405</v>
+        <v>0.1596597528209701</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>449</v>
@@ -979,19 +979,19 @@
         <v>278210</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255250</v>
+        <v>254132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301671</v>
+        <v>304223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2493261763628007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2287493715837863</v>
+        <v>0.2277473270670435</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.270350834298433</v>
+        <v>0.2726382223379127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>611</v>
@@ -1000,19 +1000,19 @@
         <v>411047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>380196</v>
+        <v>379929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443975</v>
+        <v>445926</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1980007998486098</v>
+        <v>0.1980007998486097</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1831399412218977</v>
+        <v>0.1830112665509089</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2138621837815023</v>
+        <v>0.2148019017633195</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>827301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>806305</v>
+        <v>806842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>847817</v>
+        <v>847814</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8616484015363468</v>
+        <v>0.8616484015363467</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.839781650410595</v>
+        <v>0.8403402471790304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8830171303752304</v>
+        <v>0.8830137639173855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1158</v>
@@ -1050,19 +1050,19 @@
         <v>837639</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>814178</v>
+        <v>811626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>860599</v>
+        <v>861717</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7506738236371993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.729649165701567</v>
+        <v>0.727361777662087</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7712506284162137</v>
+        <v>0.7722526729329557</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1906</v>
@@ -1071,19 +1071,19 @@
         <v>1664939</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1632011</v>
+        <v>1630060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1695790</v>
+        <v>1696057</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8019992001513903</v>
+        <v>0.8019992001513901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7861378162184977</v>
+        <v>0.7851980982366809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8168600587781024</v>
+        <v>0.8169887334490915</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>110057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91802</v>
+        <v>91219</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130091</v>
+        <v>130859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1051685443067517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08772487200312919</v>
+        <v>0.08716798420725924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1243129890098295</v>
+        <v>0.1250465697495818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>277</v>
@@ -1196,19 +1196,19 @@
         <v>180675</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159964</v>
+        <v>159952</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203625</v>
+        <v>202902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1724583723525333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1526897764955765</v>
+        <v>0.1526779748025295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1943651544485453</v>
+        <v>0.1936747655604604</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>404</v>
@@ -1217,19 +1217,19 @@
         <v>290731</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262056</v>
+        <v>262393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322384</v>
+        <v>320754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1388321331875696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1251386669780221</v>
+        <v>0.1252995955351751</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1539472542015429</v>
+        <v>0.153168852825646</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>936422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>916388</v>
+        <v>915620</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>954677</v>
+        <v>955260</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8948314556932483</v>
+        <v>0.8948314556932484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8756870109901707</v>
+        <v>0.8749534302504183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9122751279968709</v>
+        <v>0.9128320157927408</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1239</v>
@@ -1267,19 +1267,19 @@
         <v>866967</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>844017</v>
+        <v>844740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>887678</v>
+        <v>887690</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8275416276474666</v>
+        <v>0.8275416276474667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8056348455514548</v>
+        <v>0.8063252344395397</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8473102235044233</v>
+        <v>0.8473220251974706</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2141</v>
@@ -1288,19 +1288,19 @@
         <v>1803390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1771737</v>
+        <v>1773367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1832065</v>
+        <v>1831728</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8611678668124303</v>
+        <v>0.8611678668124304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8460527457984571</v>
+        <v>0.846831147174354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.874861333021978</v>
+        <v>0.8747004044648249</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>79397</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62923</v>
+        <v>63888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100742</v>
+        <v>103737</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08135557571838503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06447456523750841</v>
+        <v>0.06546338616056979</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1032269589443215</v>
+        <v>0.1062952531853637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -1413,19 +1413,19 @@
         <v>125827</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>107875</v>
+        <v>108993</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144273</v>
+        <v>144144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1385377057180492</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1187721077020669</v>
+        <v>0.1200036290391076</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1588471944269474</v>
+        <v>0.1587045117959457</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -1434,19 +1434,19 @@
         <v>205224</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180037</v>
+        <v>178808</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234752</v>
+        <v>232574</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.108919668966082</v>
+        <v>0.1089196689660819</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09555167651971656</v>
+        <v>0.09489943519158461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1245911770683387</v>
+        <v>0.1234349237461898</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>896532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>875187</v>
+        <v>872192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>913006</v>
+        <v>912041</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9186444242816149</v>
+        <v>0.918644424281615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8967730410556781</v>
+        <v>0.8937047468146361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9355254347624914</v>
+        <v>0.9345366138394302</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1133</v>
@@ -1484,19 +1484,19 @@
         <v>782424</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>763978</v>
+        <v>764107</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>800376</v>
+        <v>799258</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.861462294281951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8411528055730527</v>
+        <v>0.8412954882040542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.881227892297933</v>
+        <v>0.8799963709608923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2005</v>
@@ -1505,19 +1505,19 @@
         <v>1678956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1649428</v>
+        <v>1651606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1704143</v>
+        <v>1705372</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.891080331033918</v>
+        <v>0.8910803310339179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8754088229316612</v>
+        <v>0.8765650762538101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9044483234802833</v>
+        <v>0.9051005648084154</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>447082</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>409470</v>
+        <v>407501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>490853</v>
+        <v>487484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1284243226671405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1176203853512482</v>
+        <v>0.1170548902468687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1409976462354325</v>
+        <v>0.140029942635268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1232</v>
@@ -1630,19 +1630,19 @@
         <v>789685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>746929</v>
+        <v>746839</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>831590</v>
+        <v>830255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2137314681758776</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2021594579061846</v>
+        <v>0.2021351125218694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2250731066499062</v>
+        <v>0.2247120379028371</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1728</v>
@@ -1651,19 +1651,19 @@
         <v>1236767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1177167</v>
+        <v>1181055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1291081</v>
+        <v>1296270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1723467305646726</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1640413872157268</v>
+        <v>0.1645832115338033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1799155242926068</v>
+        <v>0.1806386222265963</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3034202</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2990431</v>
+        <v>2993800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3071814</v>
+        <v>3073783</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8715756773328595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8590023537645676</v>
+        <v>0.8599700573647318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8823796146487518</v>
+        <v>0.8829451097531311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4071</v>
@@ -1701,19 +1701,19 @@
         <v>2905068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2863163</v>
+        <v>2864498</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2947824</v>
+        <v>2947914</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7862685318241224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7749268933500938</v>
+        <v>0.7752879620971628</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7978405420938152</v>
+        <v>0.7978648874781306</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6916</v>
@@ -1722,19 +1722,19 @@
         <v>5939271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5884957</v>
+        <v>5879768</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5998871</v>
+        <v>5994983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8276532694353275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8200844757073932</v>
+        <v>0.8193613777734035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8359586127842732</v>
+        <v>0.8354167884661966</v>
       </c>
     </row>
     <row r="18">
